--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -448,19 +448,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>amulek</t>
+          <t>worker 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon 13-14, Mon 14-15, Mon 15-16, Mon 16-17, Tue 13-14, Tue 14-15, Wed 13-14, Wed 14-15, Wed 15-16, Thu 13-14, Fri 13-14, Fri 15-16</t>
+          <t>Mon 13-14, Tue 13-14, Wed 13-14, Wed 14-15, Wed 15-16, Thu 13-14, Thu 14-15, Fri 12-13, Fri 13-14, Fri 14-15, Fri 15-16, Fri 16-17</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>andrew</t>
+          <t>worker 2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,168 +472,168 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>brandon</t>
+          <t>worker 3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mon 13-14, Tue 8-9, Tue 10-11, Tue 12-13, Tue 14-15, Wed 13-14, Wed 14-15, Thu 13-14, Thu 14-15, Fri 12-13, Fri 13-14, Fri 16-17</t>
+          <t>Mon 14-15, Tue 12-13, Tue 16-17, Wed 8-9, Wed 9-10, Wed 12-13, Wed 14-15, Wed 15-16, Thu 12-13, Thu 16-17, Fri 9-10, Fri 12-13</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>chloe</t>
+          <t>worker 4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mon 9-10, Mon 12-13, Mon 14-15, Tue 15-16, Wed 9-10, Wed 12-13, Wed 13-14, Wed 14-15, Wed 16-17, Thu 15-16, Fri 9-10, Fri 15-16</t>
+          <t>Mon 9-10, Mon 12-13, Mon 14-15, Mon 15-16, Mon 16-17, Tue 14-15, Wed 12-13, Wed 13-14, Thu 14-15, Thu 15-16, Fri 12-13, Fri 15-16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>eleanor</t>
+          <t>worker 5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tue 14-15, Thu 12-13, Fri 13-14</t>
+          <t>Tue 15-16, Fri 11-12, Fri 13-14</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jess</t>
+          <t>worker 6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thu 9-10, Thu 10-11, Thu 12-13, Thu 13-14, Thu 14-15, Fri 9-10, Fri 10-11, Fri 12-13</t>
+          <t>Tue 9-10, Tue 13-14, Thu 9-10, Thu 13-14, Fri 9-10, Fri 10-11, Fri 12-13, Fri 13-14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>kacy</t>
+          <t>worker 7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mon 12-13, Mon 13-14, Mon 14-15, Tue 12-13, Tue 13-14, Wed 12-13, Wed 13-14, Thu 12-13</t>
+          <t>Mon 12-13, Mon 13-14, Mon 15-16, Tue 12-13, Tue 13-14, Wed 12-13, Wed 13-14, Wed 14-15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>levi</t>
+          <t>worker 8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mon 10-11, Mon 11-12, Mon 15-16, Tue 12-13, Tue 15-16, Tue 16-17, Wed 10-11, Wed 15-16, Fri 10-11, Fri 15-16</t>
+          <t>Mon 10-11, Tue 12-13, Tue 15-16, Wed 10-11, Wed 11-12, Wed 15-16, Thu 12-13, Thu 16-17, Fri 15-16, Fri 16-17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>makayla</t>
+          <t>worker 9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mon 9-10, Mon 16-17, Tue 15-16, Tue 16-17, Wed 9-10, Wed 10-11, Thu 14-15, Thu 16-17, Fri 11-12, Fri 12-13, Fri 13-14, Fri 14-15</t>
+          <t>Mon 9-10, Mon 10-11, Tue 14-15, Tue 15-16, Wed 9-10, Wed 10-11, Wed 16-17, Thu 14-15, Thu 15-16, Fri 10-11, Fri 12-13, Fri 13-14</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>thomas</t>
+          <t>worker 10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tue 8-9, Tue 9-10, Tue 13-14, Wed 14-15, Fri 12-13</t>
+          <t>Mon 13-14, Wed 13-14, Thu 13-14, Fri 13-14, Fri 14-15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>brooklyn</t>
+          <t>worker 11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mon 12-13, Mon 13-14, Tue 13-14, Tue 14-15, Tue 16-17, Wed 12-13, Wed 13-14, Thu 12-13, Thu 13-14, Thu 15-16, Thu 16-17, Fri 11-12, Fri 12-13, Fri 14-15, Fri 16-17</t>
+          <t>Mon 12-13, Mon 13-14, Mon 14-15, Tue 12-13, Tue 13-14, Tue 15-16, Tue 16-17, Wed 13-14, Wed 16-17, Thu 12-13, Thu 13-14, Thu 14-15, Thu 15-16, Fri 11-12, Fri 14-15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>maria</t>
+          <t>worker 12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mon 14-15, Mon 15-16, Wed 15-16, Thu 15-16, Fri 14-15</t>
+          <t>Mon 15-16, Tue 10-11, Tue 14-15, Wed 14-15, Fri 14-15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>meili</t>
+          <t>worker 13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mon 8-9, Mon 10-11, Tue 12-13, Tue 13-14, Wed 8-9, Wed 11-12, Thu 8-9, Fri 8-9</t>
+          <t>Mon 8-9, Mon 11-12, Tue 8-9, Tue 13-14, Tue 14-15, Wed 8-9, Thu 8-9, Fri 8-9</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>zach</t>
+          <t>worker 14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mon 11-12, Mon 12-13, Wed 11-12, Wed 12-13, Wed 16-17, Thu 13-14, Thu 14-15, Thu 15-16, Thu 16-17</t>
+          <t>Mon 11-12, Mon 12-13, Mon 16-17, Tue 16-17, Wed 12-13, Thu 12-13, Thu 13-14, Thu 15-16, Thu 16-17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>troy</t>
+          <t>worker 15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mon 8-9, Tue 8-9, Tue 15-16, Wed 8-9, Wed 12-13, Thu 8-9, Fri 8-9</t>
+          <t>Mon 8-9, Tue 8-9, Wed 8-9, Wed 11-12, Wed 12-13, Thu 8-9, Fri 8-9</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tyler</t>
+          <t>worker 16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mon 12-13, Mon 13-14, Fri 13-14, Fri 14-15</t>
+          <t>Mon 12-13, Mon 13-14, Mon 14-15, Thu 10-11</t>
         </is>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brandon, Lynsey, Andrew</t>
+          <t>Brandon, Andrew</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brandon, Lynsey, Maria</t>
+          <t>Brandon, Maria</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lynsey, Andrew, Eleanor</t>
+          <t>Andrew, Eleanor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thomas, Andrew</t>
+          <t>Thomas, Makayla</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chloe, Eleanor</t>
+          <t>Zach, Eleanor</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,13 +575,13 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chloe, Zach</t>
+          <t>Chloe, Levi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Makayla</t>
+          <t>Thomas, Makayla</t>
         </is>
       </c>
     </row>
@@ -593,12 +593,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brandon, Makayla, Andrew, Amulek, Maria</t>
+          <t>Makayla, Andrew, Amulek, Maria</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Thomas, Brandon, Lynsey, Amulek, Levi</t>
+          <t>Thomas, Brandon, Lynsey, Makayla, Amulek, Levi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Thomas, Andrew, Amulek</t>
+          <t>Thomas, Makayla, Andrew, Amulek, Levi</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -625,27 +625,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Makayla, Andrew, Amulek, Zach, Maria</t>
+          <t>Andrew, Amulek, Zach, Maria</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Brandon, Lynsey, Makayla, Amulek, Levi</t>
+          <t>Brandon, Lynsey, Makayla, Amulek, Zach, Levi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Andrew, Amulek, Levi</t>
+          <t>Lynsey, Andrew, Amulek, Zach, Maria, Levi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Thomas, Makayla, Amulek, Zach</t>
+          <t>Thomas, Makayla, Andrew, Amulek, Zach, Levi</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Thomas, Makayla, Andrew, Amulek, Maria</t>
+          <t>Makayla, Andrew, Amulek, Maria</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lynsey, Makayla, Chloe, Amulek, Zach</t>
+          <t>Brandon, Lynsey, Makayla, Chloe, Amulek, Zach</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Thomas, Lynsey, Makayla, Amulek, Zach, Levi</t>
+          <t>Thomas, Lynsey, Amulek, Zach, Levi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Thomas, Chloe, Zach, Maria, Levi</t>
+          <t>Thomas, Chloe, Amulek, Zach, Maria, Levi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -689,22 +689,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amulek, Zach, Maria</t>
+          <t>Chloe, Amulek, Zach, Maria</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Makayla, Chloe, Amulek, Zach, Levi</t>
+          <t>Thomas, Makayla, Chloe, Amulek, Zach, Levi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Makayla, Chloe, Zach, Levi</t>
+          <t>Makayla, Chloe, Zach, Maria, Levi</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Makayla, Chloe, Zach, Levi</t>
+          <t>Thomas, Makayla, Chloe, Zach, Levi</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -721,18 +721,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Zach</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>Makayla, Zach</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chloe, Amulek, Zach, Levi</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thomas, Makayla, Zach</t>
+          <t>Thomas, Makayla</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Chloe, Zach, Levi</t>
+          <t>Lynsey, Chloe, Zach, Levi</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
